--- a/vue-mocha/docs/testcase/views/UserPage.xlsx
+++ b/vue-mocha/docs/testcase/views/UserPage.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="137">
   <si>
     <t>Business Code</t>
   </si>
@@ -100,16 +100,10 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Initial display:
-Api get codes executed</t>
-  </si>
-  <si>
-    <t>Initial indication time
-getCodes === 200</t>
-  </si>
-  <si>
-    <t>API running:
-GET /codes with status 200</t>
+    <t xml:space="preserve">At the time of initial display:
+- Call api /users show vào table (1)
++ selection: Default users[0] is selected
+</t>
   </si>
   <si>
     <t>1</t>
@@ -118,34 +112,194 @@
     <t>2</t>
   </si>
   <si>
-    <t>API running:
-GET /users with status 200</t>
+    <t xml:space="preserve">At the time of initial display,  
+Click [Add]/[Edit]/[Delete] </t>
   </si>
   <si>
-    <t>Initial indication time
-getCodes == 404</t>
+    <t>- Show loading over table
+- Show button Cancel,Submit
+- Disable 3 button Add,Edit,Delete</t>
   </si>
   <si>
-    <t>Show toast error with message from api return</t>
+    <r>
+      <t>At the time of initial display, 
+Click [Add]: show loading
++ UserForm: truyền props user = new UserDto()
++ Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n validate: validate failed</t>
+    </r>
   </si>
   <si>
-    <t>Initial display:
-Api get codes executed !== 200, options dropdown [position] is empty</t>
+    <t>user: {
+  name: '',
+  email: 'john.doe@example.com',
+}</t>
   </si>
   <si>
-    <t>Initial indication time
-getCodes !== 200</t>
+    <t xml:space="preserve">
+- Show message error cho input (truyền props error cho component UserForm): message: Name is required</t>
   </si>
   <si>
-    <t>options: []</t>
+    <t>user: {
+  name: 'John Doe',
+  email: '',
+}</t>
   </si>
   <si>
-    <t>At the time of initial display, in reading mode, about the properties of form
-- Input in modelValue, name, email, address, phone are set
-- Passing true to readonly</t>
+    <t xml:space="preserve">- Show message error cho input (truyền props error cho component UserForm): Email is required </t>
   </si>
   <si>
-    <t>mode: "view"
+    <t>user: {
+  name: 'John Doe',
+  email: 'John.doe',
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Show message error cho input (truyền props error cho component UserForm):Email address is not valid </t>
+  </si>
+  <si>
+    <r>
+      <t>At the time of initial display, 
+ Click [Edit]: show loading   
++ Thay đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i data UserForm
++ Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n validate: validate failed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>At the time of initial display,
+ Click [Add]: show loading   
++ Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n validate: validate passed: call api POST /users.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
 user: {
   name: 'John Doe',
   email: 'john.doe@example.com',
@@ -155,53 +309,55 @@
 }</t>
   </si>
   <si>
-    <t>modelValue: [value from props user.[key]]
-readonly: true</t>
+    <t xml:space="preserve">
+Call api /users </t>
   </si>
   <si>
-    <t>At the time of initial display, in reading mode, about the properties of [position]
-- Input in modelValue
-- Passing true to readonly</t>
+    <r>
+      <t>At the time of initial display, in view mode,  Click [Edit]:   show loading
++ Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n validate: validate passed: call api PUT /users/{id}.</t>
+    </r>
   </si>
   <si>
-    <t>modelValue: '1'
-disabled: true
-optionLabel: 'name'
-optionValue: 'id'</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>At the time of initial display, show message error of [name, email]</t>
-  </si>
-  <si>
-    <t>mode: "view"
+    <t xml:space="preserve">
 user: {
-  name: 'John Doe',
-  email: 'john.doe@example.com',
-  address: '123 Main St',
-  phone: '123-456-7890',
-  code: '1',
-}
- errors: {
-   name: "Name is required",
-   email: "Email is required",
-  }</t>
-  </si>
-  <si>
-    <t>error: error[key]</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>At the time of initial display, in edit mode
- show mask required of [name, email]</t>
-  </si>
-  <si>
-    <t>mode: "edit"
-user: {
+ id :'1',
   name: 'John Doe',
   email: 'john.doe@example.com',
   address: '123 Main St',
@@ -210,41 +366,91 @@
 }</t>
   </si>
   <si>
-    <t>required: true</t>
+    <t>At the time of initial display, in view mode,  Click [Add]: show loading
++ Click [Cancel]</t>
   </si>
   <si>
-    <t>5</t>
+    <t xml:space="preserve">
+- Hiden loading</t>
   </si>
   <si>
-    <t>At the time of initial display, in edit mode
- If Props user change show data change in input</t>
+    <t>At the time of initial display, in view mode,  Click [Edit]: show loading
++ Click [Cancel]</t>
   </si>
   <si>
-    <t>mode: "edit"
+    <r>
+      <t>At the time of initial display,
++ Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n record b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t kỳ
++ Click [Delete]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
 user: {
-  name: 'Doe John',
-  email: 'abc@gmail.com',
+   id :'1',
+  name: 'John Doe',
+  email: 'john.doe@example.com',
   address: '123 Main St',
   phone: '123-456-7890',
   code: '1',
 }</t>
   </si>
   <si>
-    <t>modelValue: 'Doe John'
-modelValue: 'abc@gmail.com'</t>
+    <t xml:space="preserve">- Show dialog confirm delete: confirm delete record {user.name} </t>
   </si>
   <si>
-    <t>6</t>
+    <t>14</t>
   </si>
   <si>
-    <t>At the time of initial display, in edit mode
- If change vue input emit trigger</t>
+    <t>At the time of initial display, Show dialog confirm delete
++ Click [OK]</t>
   </si>
   <si>
-    <t>emmited: call count</t>
+    <t xml:space="preserve">- Call api delete /users/{id}
+- call api user to update data table  </t>
   </si>
   <si>
-    <t>7</t>
+    <t>At the time of initial display, Show dialog confirm delete
++ Click [Delete]</t>
+  </si>
+  <si>
+    <t>- hiden modal delete</t>
   </si>
   <si>
     <t>Result</t>
@@ -562,14 +768,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;\ m&quot;月&quot;\ d&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;\ m&quot;月&quot;\ d&quot;日&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="yyyy\.\ m\.\ d"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -605,6 +811,23 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -620,18 +843,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -650,8 +866,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -667,9 +905,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,23 +919,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,17 +949,19 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -754,25 +979,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -780,7 +996,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,7 +1047,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,49 +1155,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,49 +1173,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,49 +1197,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,8 +1213,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1095,6 +1299,17 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -1114,35 +1329,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,26 +1349,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,158 +1382,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1402,10 +1618,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1468,78 +1684,124 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="53">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="標準 5" xfId="9"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
-    <cellStyle name="標準 3" xfId="16"/>
-    <cellStyle name="40% - Accent2" xfId="17" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="18" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="19" builtinId="33"/>
-    <cellStyle name="標準 2" xfId="20"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="22" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="23" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="25" builtinId="32"/>
-    <cellStyle name="Bad" xfId="26" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="27" builtinId="42"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Output" xfId="29" builtinId="21"/>
-    <cellStyle name="Currency" xfId="30" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="31" builtinId="38"/>
-    <cellStyle name="Note" xfId="32" builtinId="10"/>
-    <cellStyle name="Input" xfId="33" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="34" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="35" builtinId="22"/>
-    <cellStyle name="Good" xfId="36" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="37" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="38" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="40" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="41" builtinId="50"/>
-    <cellStyle name="Title" xfId="42" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="43" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="44" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
-    <cellStyle name="Comma" xfId="47" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="49" builtinId="40"/>
-    <cellStyle name="Percent" xfId="50" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
+    <cellStyle name="標準 5" xfId="10"/>
+    <cellStyle name="40% - Accent4" xfId="11" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="12" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="15" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="16" builtinId="37"/>
+    <cellStyle name="標準 3" xfId="17"/>
+    <cellStyle name="40% - Accent2" xfId="18" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="19" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33"/>
+    <cellStyle name="標準 2" xfId="21"/>
+    <cellStyle name="40% - Accent1" xfId="22" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="23" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="25" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="26" builtinId="32"/>
+    <cellStyle name="Bad" xfId="27" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="28" builtinId="42"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Output" xfId="30" builtinId="21"/>
+    <cellStyle name="Currency" xfId="31" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="32" builtinId="38"/>
+    <cellStyle name="Note" xfId="33" builtinId="10"/>
+    <cellStyle name="Input" xfId="34" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="35" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="36" builtinId="22"/>
+    <cellStyle name="Good" xfId="37" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="38" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="39" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="40" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="41" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="42" builtinId="50"/>
+    <cellStyle name="Title" xfId="43" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="44" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="45" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="47" builtinId="17"/>
+    <cellStyle name="Comma" xfId="48" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="49" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="50" builtinId="40"/>
+    <cellStyle name="Percent" xfId="51" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1763,7 +2025,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.2" outlineLevelCol="6"/>
@@ -1779,288 +2041,360 @@
   </cols>
   <sheetData>
     <row r="1" ht="16" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" ht="16" spans="1:6">
-      <c r="A2" s="21" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" ht="16" spans="1:7">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="42" t="e">
+      <c r="E2" s="55" t="e">
         <f ca="1">MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND("単",CELL("filename",A1))-FIND("[",CELL("filename",A1))-2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F2" s="42"/>
-    </row>
-    <row r="3" ht="16" spans="1:6">
-      <c r="A3" s="33" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" ht="16" spans="1:7">
+      <c r="A3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="57" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="31" spans="1:7">
-      <c r="A4" s="24">
-        <f>ROW()-3</f>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" ht="76" spans="1:7">
+      <c r="A4" s="42">
+        <f t="shared" ref="A4:A16" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5" ht="46" spans="1:7">
+      <c r="A5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="B5" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" ht="31" spans="1:7">
-      <c r="A5" s="24" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="F5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" ht="61" spans="1:7">
+      <c r="A6" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="C6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" ht="31" spans="1:7">
-      <c r="A6" s="24">
-        <f>ROW()-3</f>
-        <v>3</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" ht="46" spans="1:7">
-      <c r="A7" s="24">
-        <f t="shared" ref="A7:A13" si="0">ROW()-3</f>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" ht="61" spans="1:7">
+      <c r="A7" s="42">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="E7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" ht="122" spans="1:7">
-      <c r="A8" s="24">
+      <c r="F7" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="54"/>
+    </row>
+    <row r="8" ht="61" spans="1:7">
+      <c r="A8" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" ht="122" spans="1:7">
-      <c r="A9" s="24">
+      <c r="F8" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" ht="61" spans="1:7">
+      <c r="A9" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" ht="183" spans="1:6">
-      <c r="A10" s="24">
+      <c r="D9" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" ht="61" spans="1:7">
+      <c r="A10" s="42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" ht="122" spans="1:6">
-      <c r="A11" s="24">
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" ht="61" spans="1:7">
+      <c r="A11" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" ht="122" spans="1:6">
-      <c r="A12" s="24">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="56"/>
+    </row>
+    <row r="12" ht="122" spans="1:7">
+      <c r="A12" s="42">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" ht="122" spans="1:6">
-      <c r="A13" s="24">
+      <c r="C12" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" ht="137" spans="1:7">
+      <c r="A13" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="26" t="s">
+      <c r="C13" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14" ht="46" spans="1:7">
+      <c r="A14" s="42">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" ht="46" spans="1:7">
+      <c r="A15" s="42">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" ht="137" spans="1:7">
+      <c r="A16" s="42">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" ht="137" spans="1:7">
+      <c r="A17" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="7:7">
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="7:7">
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="7:7">
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="19"/>
+      <c r="F17" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" ht="31" spans="1:7">
+      <c r="A18" s="42">
+        <f>ROW()-3</f>
+        <v>15</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" s="19"/>
@@ -2245,17 +2579,21 @@
   <autoFilter ref="A3:F19">
     <extLst/>
   </autoFilter>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F12 F13 F14 F15 F6:F8 F9:F11 F16:F18">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6:B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B9 B10 B12 B13 B14 B15 B16 B17 B18">
       <formula1>"Normal, AbNormal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2343,7 +2681,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="15.2" spans="1:6">
@@ -8548,10 +8886,10 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="6"/>
@@ -8561,10 +8899,10 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="6"/>
@@ -8574,10 +8912,10 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="6"/>
@@ -8587,10 +8925,10 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="6"/>
@@ -8600,10 +8938,10 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
@@ -8626,13 +8964,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="15">
         <v>44460</v>
@@ -8646,7 +8984,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G9" s="16"/>
     </row>
@@ -8654,7 +8992,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -8667,19 +9005,19 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" s="17">
         <v>43831</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" ht="12" hidden="1" spans="1:7">
@@ -8688,19 +9026,19 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" s="18">
         <v>43831</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" ht="12" hidden="1" spans="1:7">
@@ -8709,19 +9047,19 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="12" hidden="1" spans="1:7">
@@ -8730,19 +9068,19 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" ht="12" hidden="1" spans="1:7">
@@ -8751,19 +9089,19 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" ht="12" hidden="1" spans="1:7">
@@ -8772,19 +9110,19 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="16" spans="1:7">
@@ -8792,19 +9130,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="F17" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G17" s="14"/>
     </row>
@@ -8812,7 +9150,7 @@
       <c r="A18" s="8"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -8825,16 +9163,16 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G19" s="14"/>
     </row>
@@ -15874,148 +16212,148 @@
   <sheetData>
     <row r="2" ht="12" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="12" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="12" spans="4:4">
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" ht="12" spans="4:4">
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="12" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" ht="12" hidden="1" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" ht="12" spans="4:4">
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" ht="12" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" ht="12" spans="6:7">
       <c r="F13" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" ht="12" spans="6:7">
       <c r="F14" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" ht="12" spans="6:7">
       <c r="F15" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="12" spans="6:7">
       <c r="F16" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" ht="12" spans="6:7">
       <c r="F17" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" ht="12" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" ht="12" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" ht="12" spans="4:4">
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" ht="12" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" ht="12" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" ht="12" spans="6:7">
       <c r="F27" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" ht="12" spans="6:7">
       <c r="F28" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" ht="12" spans="6:6">
       <c r="F29" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" ht="12" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" ht="16" spans="6:7">
@@ -16023,60 +16361,60 @@
         <v>7</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" ht="16" spans="6:7">
       <c r="F33" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" ht="16" spans="6:7">
       <c r="F34" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" ht="16" spans="6:7">
       <c r="F35" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" ht="31" hidden="1" spans="6:7">
       <c r="F36" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" ht="31" spans="6:8">
       <c r="F37" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="12" spans="6:6">
       <c r="F39" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="12" spans="6:6">
       <c r="F40" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" ht="12" spans="1:1">
@@ -16084,47 +16422,47 @@
     </row>
     <row r="43" ht="12" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="12" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" ht="12" spans="4:4">
       <c r="D46" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" ht="12" spans="5:5">
       <c r="E47" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" ht="12" spans="4:4">
       <c r="D48" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" ht="12" spans="5:5">
       <c r="E49" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" ht="12" spans="4:4">
       <c r="D50" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" ht="12" spans="5:5">
       <c r="E51" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" ht="12" spans="5:5">
       <c r="E52" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" ht="12" spans="7:9">
@@ -16134,47 +16472,47 @@
     </row>
     <row r="54" ht="12" spans="7:9">
       <c r="G54" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" ht="31" spans="7:9">
       <c r="G55" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" ht="31" spans="7:9">
       <c r="G56" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I56" s="3"/>
     </row>
     <row r="57" ht="16" spans="7:9">
       <c r="G57" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" ht="16" spans="7:9">
       <c r="G58" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
